--- a/excel/산업 부가가치(PER GDP).xlsx
+++ b/excel/산업 부가가치(PER GDP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,20 +842,6 @@
         <v>28.7958064674079</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="n">
-        <v>31.7575181493254</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
